--- a/TEST CASE TEMPLATE.xlsx
+++ b/TEST CASE TEMPLATE.xlsx
@@ -84,9 +84,6 @@
     <t>N1_R1_TS2_TC1</t>
   </si>
   <si>
-    <t>N1_R1_TS1_TC1_D1</t>
-  </si>
-  <si>
     <t>Login-Forgot Passsword</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>N1_R2</t>
+  </si>
+  <si>
+    <t>..\NAUKRI\DEFECT REPORTS\R1_TS1_TC1_D1.xlsx</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -410,6 +410,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -417,6 +441,7 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -436,6 +461,320 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -472,318 +811,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -795,23 +822,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B8:O25" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B8:O25" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="B8:O25"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Requirment Id" dataDxfId="14"/>
-    <tableColumn id="2" name="Requirment  Description" dataDxfId="13"/>
-    <tableColumn id="3" name="Test Scneario id" dataDxfId="12"/>
-    <tableColumn id="4" name="Test Scenario Description" dataDxfId="11"/>
-    <tableColumn id="5" name="Test Case id" dataDxfId="10"/>
-    <tableColumn id="6" name="Test Case Description" dataDxfId="0"/>
-    <tableColumn id="7" name="Pre-Requisites" dataDxfId="9"/>
-    <tableColumn id="8" name="Test Data" dataDxfId="8"/>
+    <tableColumn id="1" name="Requirment Id" dataDxfId="13"/>
+    <tableColumn id="2" name="Requirment  Description" dataDxfId="12"/>
+    <tableColumn id="3" name="Test Scneario id" dataDxfId="11"/>
+    <tableColumn id="4" name="Test Scenario Description" dataDxfId="10"/>
+    <tableColumn id="5" name="Test Case id" dataDxfId="9"/>
+    <tableColumn id="6" name="Test Case Description" dataDxfId="1"/>
+    <tableColumn id="7" name="Pre-Requisites" dataDxfId="8"/>
+    <tableColumn id="8" name="Test Data" dataDxfId="2"/>
     <tableColumn id="9" name="Expected Results" dataDxfId="7"/>
     <tableColumn id="10" name="Actual Result" dataDxfId="6"/>
     <tableColumn id="11" name="Status" dataDxfId="5"/>
     <tableColumn id="12" name="Screenshot" dataDxfId="4"/>
-    <tableColumn id="13" name="Defect ID" dataDxfId="3"/>
-    <tableColumn id="14" name="Remarks" dataDxfId="2"/>
+    <tableColumn id="13" name="Defect ID" dataDxfId="0"/>
+    <tableColumn id="14" name="Remarks" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1118,28 +1145,31 @@
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="122.7109375" customWidth="1"/>
+    <col min="7" max="7" width="66.7109375" style="27" customWidth="1"/>
     <col min="8" max="8" width="37.28515625" customWidth="1"/>
-    <col min="9" max="9" width="59.7109375" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" style="27" customWidth="1"/>
     <col min="10" max="10" width="43.5703125" customWidth="1"/>
     <col min="11" max="11" width="37" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
     <col min="13" max="13" width="42.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" style="27" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1147,12 +1177,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1161,24 +1191,24 @@
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>30</v>
+      <c r="G8" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -1193,7 +1223,7 @@
       <c r="M8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="28" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="16" t="s">
@@ -1206,142 +1236,154 @@
         <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="29" t="s">
         <v>13</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="K10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>25</v>
+      <c r="N11" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="20"/>
+      <c r="G12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="22"/>
     </row>
     <row r="13" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="20"/>
+      <c r="G13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="N13" s="30"/>
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="20"/>
+      <c r="G14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="N14" s="30"/>
       <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="5"/>
+      <c r="G15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1350,14 +1392,14 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -1366,14 +1408,14 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="18"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -1382,14 +1424,14 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" s="31"/>
       <c r="O18" s="18"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -1398,14 +1440,14 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="31"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -1414,14 +1456,14 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -1430,14 +1472,14 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" s="31"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -1446,14 +1488,14 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" s="31"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -1462,14 +1504,14 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -1478,14 +1520,14 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1494,27 +1536,25 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="32"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="N25" s="32"/>
       <c r="O25" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1"/>
     <hyperlink ref="M10" r:id="rId2"/>
+    <hyperlink ref="N10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/TEST CASE TEMPLATE.xlsx
+++ b/TEST CASE TEMPLATE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>PROJECT ID</t>
   </si>
@@ -168,7 +168,19 @@
     <t>N1_R2</t>
   </si>
   <si>
-    <t>..\NAUKRI\DEFECT REPORTS\R1_TS1_TC1_D1.xlsx</t>
+    <t>..\NAUKRI\DEFECT REPORTS\R1_TS1_TC2_D1.xlsx</t>
+  </si>
+  <si>
+    <t>N1_R1_TS1_TC3</t>
+  </si>
+  <si>
+    <t>To verify  whether the Login page is not navigated to home page to the Naukri Home page after the input of valid Username and valid Password</t>
+  </si>
+  <si>
+    <t>Home page not appear</t>
+  </si>
+  <si>
+    <t>..\NAUKRI\DEFECT REPORTS\R1_TS1_TC3_D1.xlsx</t>
   </si>
 </sst>
 </file>
@@ -822,8 +834,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B8:O25" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="B8:O25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B8:O26" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="B8:O26"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Requirment Id" dataDxfId="13"/>
     <tableColumn id="2" name="Requirment  Description" dataDxfId="12"/>
@@ -1131,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1320,47 +1332,82 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="20"/>
-      <c r="G12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="22"/>
+      <c r="O12" s="17"/>
     </row>
     <row r="13" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -1378,27 +1425,19 @@
       <c r="N14" s="30"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="G15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="18"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="20"/>
+      <c r="G15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="2"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
       <c r="N16" s="31"/>
       <c r="O16" s="18"/>
     </row>
@@ -1531,30 +1570,47 @@
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="19"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="18"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1"/>
     <hyperlink ref="M10" r:id="rId2"/>
     <hyperlink ref="N10" r:id="rId3"/>
+    <hyperlink ref="N11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
